--- a/Data.xlsx
+++ b/Data.xlsx
@@ -25,10 +25,10 @@
     <t>Time_Stamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Cюда id профилей с антика </t>
+    <t>сюда ID профилей</t>
   </si>
   <si>
-    <t>Сюда сотвецтвующий пароль от метамаска</t>
+    <t>Сюда соотвецтвующий пароль</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -86,16 +86,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -105,18 +100,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -361,799 +346,799 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="4">
-        <v>45135.87938657407</v>
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45135.82973379629</v>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45136.05508101852</v>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>45136.19415509259</v>
+      <c r="C5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45136.12458333333</v>
+      <c r="C6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45136.20677083333</v>
+      <c r="C7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45135.93578703704</v>
+      <c r="C8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45136.46579861111</v>
+      <c r="C9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45135.91652777778</v>
+      <c r="C10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45135.8481712963</v>
+      <c r="C11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45136.26462962963</v>
+      <c r="C12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45135.9291087963</v>
+      <c r="C13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>45136.22050925926</v>
+      <c r="C14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>45135.7852199074</v>
+      <c r="C15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>45136.18773148148</v>
+      <c r="C16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45135.75158564815</v>
+      <c r="C17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45135.70751157407</v>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45135.80333333334</v>
+      <c r="C19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>45135.90361111111</v>
+      <c r="C20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45135.99949074074</v>
+      <c r="C21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45135.79688657408</v>
+      <c r="C22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>45135.72034722222</v>
+      <c r="C23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45136.01175925926</v>
+      <c r="C24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45135.89186342592</v>
+      <c r="C25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>45135.84240740741</v>
+      <c r="C26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>45135.73268518518</v>
+      <c r="C27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>45135.7458449074</v>
+      <c r="C28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45135.8231712963</v>
+      <c r="C29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>45135.66503472222</v>
+      <c r="C30" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>45135.97459490741</v>
+      <c r="C31" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>45136.00556712963</v>
+      <c r="C32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>45135.87276620371</v>
+      <c r="C33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>45136.27748842593</v>
+      <c r="C34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>45136.18142361111</v>
+      <c r="C35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45135.85380787037</v>
+      <c r="C36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>45135.85996527778</v>
+      <c r="C37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>45136.19989583334</v>
+      <c r="C38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>45136.2458912037</v>
+      <c r="C39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45136.28409722223</v>
+      <c r="C40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D41" s="6">
-        <v>45135.86596064815</v>
+      <c r="C41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>45136.25824074074</v>
+      <c r="C42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45136.10685185185</v>
+      <c r="C43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>45136.08675925926</v>
+      <c r="C44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>45136.02550925926</v>
+      <c r="C45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="6">
-        <v>45135.91013888889</v>
+      <c r="C46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D47" s="6">
-        <v>45136.46023148148</v>
+      <c r="C47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D48" s="6">
-        <v>45135.67151620371</v>
+      <c r="C48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="6">
-        <v>45135.8164699074</v>
+      <c r="C49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>45136.04944444444</v>
+      <c r="C50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="6">
-        <v>45135.96188657408</v>
+      <c r="C51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>45135.76517361111</v>
+      <c r="C52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>45135.70146990741</v>
+      <c r="C53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D54" s="6">
-        <v>45136.11875</v>
+      <c r="C54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>45135.98692129629</v>
+      <c r="C55" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>45136.03701388889</v>
+      <c r="C56" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="6">
-        <v>45136.03123842592</v>
+      <c r="C57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D58" s="6">
-        <v>45136.1565625</v>
+      <c r="C58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>45136.10009259259</v>
+      <c r="C59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>45136.22652777778</v>
+      <c r="C60" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>45136.45328703704</v>
+      <c r="C61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>45136.25254629629</v>
+      <c r="C62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>45135.68376157407</v>
+      <c r="C63" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45145.64457175926</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D64" s="6">
-        <v>45136.09326388889</v>
+      <c r="C64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>45135.89762731481</v>
+      <c r="C65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D66" s="6">
-        <v>45135.71393518519</v>
+      <c r="C66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>45136.08020833333</v>
+      <c r="C67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D68" s="6">
-        <v>45136.13092592593</v>
+      <c r="C68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>45135.83547453704</v>
+      <c r="C69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D70" s="6">
-        <v>45136.01862268519</v>
+      <c r="C70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D71" s="6">
-        <v>45135.96803240741</v>
+      <c r="C71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D72" s="6">
-        <v>45136.1374074074</v>
+      <c r="C72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D73" s="6">
-        <v>45136.14414351852</v>
+      <c r="C73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D74" s="6">
-        <v>45136.47239583333</v>
+      <c r="C74" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D75" s="6">
-        <v>45136.07326388889</v>
+      <c r="C75" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D76" s="6">
-        <v>45135.72600694445</v>
+      <c r="C76" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>45135.79116898148</v>
+      <c r="C77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="6">
-        <v>45136.16875</v>
+      <c r="C78" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D79" s="6">
-        <v>45135.69569444445</v>
+      <c r="C79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D80" s="6">
-        <v>45136.06711805556</v>
+      <c r="C80" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="6">
-        <v>45136.23909722222</v>
+      <c r="C81" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="6">
-        <v>45136.23333333333</v>
+      <c r="C82" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="6">
-        <v>45135.98122685185</v>
+      <c r="C83" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="6">
-        <v>45136.06076388889</v>
+      <c r="C84" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="6">
-        <v>45136.17537037037</v>
+      <c r="C85" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="6">
-        <v>45135.95505787037</v>
+      <c r="C86" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D87" s="6">
-        <v>45136.16311342592</v>
+      <c r="C87" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="6">
-        <v>45136.27165509259</v>
+      <c r="C88" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="6">
-        <v>45136.11243055556</v>
+      <c r="C89" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45145.6359837963</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="6">
-        <v>45136.1499537037</v>
+      <c r="C90" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D91" s="6">
-        <v>45135.88524305556</v>
+      <c r="C91" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D92" s="6">
-        <v>45136.04328703704</v>
+      <c r="C92" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>45135.8096412037</v>
+      <c r="C93" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D94" s="6">
-        <v>45135.9490625</v>
+      <c r="C94" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="6">
-        <v>45136.21368055556</v>
+      <c r="C95" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D96" s="6">
-        <v>45135.9420949074</v>
+      <c r="C96" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D97" s="6">
-        <v>45135.75851851852</v>
+      <c r="C97" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D98" s="6">
-        <v>45135.77850694444</v>
+      <c r="C98" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D99" s="6">
-        <v>45135.739375</v>
+      <c r="C99" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D100" s="6">
-        <v>45135.92355324074</v>
+      <c r="C100" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="6">
-        <v>45135.99342592592</v>
+      <c r="C101" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45143.87938657407</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1"/>
